--- a/data/trans_dic/P12A-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P12A-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que convive con personas que tienen alguna limitación, discapacidad de tipo físico, sensorial o psíquico o mental (incluyéndose a sí mismo)</t>
+          <t>Población que convive con personas que tienen alguna limitación, discapacidad de tipo físico, sensorial o psíquico o mental (incluyéndose a sí mismo) (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>11,78%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,8%</t>
+          <t>14,44%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,33%</t>
+          <t>14,25%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,65%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,99%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>13,02%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>7,6%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>8,7%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>9,54%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>17,86%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>12,6%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>11,26%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>11,38%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>14,67%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>11,91%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>11,04%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>11,46%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>12,22%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>17,24%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>13,79%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,99; 21,1</t>
+          <t>6,89; 17,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,92; 22,04</t>
+          <t>9,38; 20,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,48; 22,85</t>
+          <t>8,5; 22,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,7; 26,44</t>
+          <t>8,71; 24,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,24; 17,85</t>
+          <t>9,9; 26,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,44; 11,61</t>
+          <t>7,55; 21,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,06; 12,86</t>
+          <t>7,21; 17,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,38; 26,22</t>
+          <t>4,36; 11,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,4; 17,47</t>
+          <t>5,08; 13,41</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,01; 15,44</t>
+          <t>5,32; 14,63</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,92; 15,64</t>
+          <t>11,93; 27,68</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,44; 23,66</t>
+          <t>9,17; 21,78</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>8,53; 16,24</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>7,65; 14,86</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>8,07; 15,82</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>8,17; 17,44</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>12,45; 23,19</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>9,63; 19,12</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,91%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>14,57%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>11,14%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>8,25%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>6,54%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>12,38%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>5,07%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>7,86%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>13,01%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>11,52%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>7,8%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>8,11%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>11,07%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
+          <t>13,58%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>7,77%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>8,46%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>11,46%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>12,01%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
           <t>9,84%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>12,96%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,3; 14,83</t>
+          <t>5,51; 14,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,71; 18,3</t>
+          <t>6,79; 20,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,99; 23,53</t>
+          <t>9,12; 24,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,15; 14,3</t>
+          <t>4,2; 25,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,73; 11,15</t>
+          <t>4,06; 13,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 8,27</t>
+          <t>7,49; 20,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,49; 12,19</t>
+          <t>3,46; 10,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,27; 16,84</t>
+          <t>2,85; 8,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,41; 11,14</t>
+          <t>4,79; 12,72</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,44; 12,04</t>
+          <t>8,28; 18,63</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,9; 16,92</t>
+          <t>7,52; 16,82</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,57; 13,53</t>
+          <t>9,02; 20,33</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>5,13; 11,11</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>5,69; 13,85</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>8,03; 17,09</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>7,89; 19,92</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>6,86; 13,93</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>9,46; 17,59</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>11,73%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>10,29%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>13,1%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,92%</t>
+          <t>14,04%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>10,78%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>11,3%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>11,0%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>10,98%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>14,35%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>9,09%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>11,14%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>10,09%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
+          <t>13,19%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>9,82%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>11,51%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>9,89%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>10,64%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
           <t>13,69%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>13,64%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,54; 15,98</t>
+          <t>5,18; 18,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,88; 18,08</t>
+          <t>8,19; 18,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,38; 20,63</t>
+          <t>5,26; 17,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,31; 18,57</t>
+          <t>6,8; 14,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,02; 13,65</t>
+          <t>9,03; 18,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,17; 14,49</t>
+          <t>8,91; 21,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,84; 14,07</t>
+          <t>7,24; 14,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,26; 19,27</t>
+          <t>8,19; 15,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,84; 13,35</t>
+          <t>8,0; 14,3</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,58; 14,3</t>
+          <t>7,54; 15,47</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,58; 15,02</t>
+          <t>10,09; 18,57</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,69; 17,31</t>
+          <t>9,36; 18,41</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>7,34; 13,63</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>8,98; 14,72</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>7,68; 14,36</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>8,05; 13,79</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>10,99; 17,48</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>10,23; 18,07</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,46%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
+          <t>12,6%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>14,16%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>27,92%</t>
+          <t>15,42%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,19%</t>
+          <t>27,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,24%</t>
+          <t>20,67%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>16,42%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>15,27%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>17,01%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>14,17%</t>
+          <t>22,49%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>18,11%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>20,18%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>14,68%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>13,96%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>15,61%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>18,98%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>23,27%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>20,43%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,87; 16,79</t>
+          <t>9,56; 17,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,45; 17,57</t>
+          <t>9,18; 16,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,36; 18,58</t>
+          <t>10,61; 18,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,55; 35,6</t>
+          <t>11,06; 20,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,54; 21,26</t>
+          <t>21,12; 34,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,86; 19,92</t>
+          <t>15,23; 27,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,46; 21,23</t>
+          <t>12,72; 21,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,03; 23,28</t>
+          <t>11,68; 19,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,72; 17,98</t>
+          <t>13,46; 21,29</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,64; 17,21</t>
+          <t>17,94; 28,55</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,01; 18,76</t>
+          <t>13,9; 23,92</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>19,18; 28,21</t>
+          <t>15,96; 25,92</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>11,93; 17,68</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>11,43; 16,99</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>12,93; 18,59</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>15,97; 22,52</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>19,43; 28,68</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>16,6; 24,61</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>16,29%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>18,8%</t>
+          <t>19,35%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>21,95%</t>
+          <t>22,36%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>21,28%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>36,45%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>17,35%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,22%</t>
+          <t>38,36%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>19,6%</t>
+          <t>17,92%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>19,83%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>19,85%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>22,78%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>27,72%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>16,66%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>19,01%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>20,75%</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
+          <t>26,1%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>17,12%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>19,59%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>21,07%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>22,05%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
           <t>31,88%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>32,12%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,36; 20,95</t>
+          <t>11,7; 21,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,57; 23,86</t>
+          <t>15,02; 24,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,94; 28,68</t>
+          <t>17,6; 28,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>28,82; 43,66</t>
+          <t>15,87; 27,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,57; 23,23</t>
+          <t>29,81; 44,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,21; 24,33</t>
+          <t>31,53; 46,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,1; 24,62</t>
+          <t>13,06; 23,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,07; 33,99</t>
+          <t>14,93; 25,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,43; 20,38</t>
+          <t>14,96; 24,94</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>15,71; 22,47</t>
+          <t>16,43; 29,28</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,02; 24,47</t>
+          <t>22,01; 33,9</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>27,37; 37,38</t>
+          <t>20,52; 32,46</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>13,65; 20,77</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>16,52; 23,15</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>17,63; 25,0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>17,72; 26,73</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>26,99; 36,74</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>27,49; 36,97</t>
         </is>
       </c>
     </row>
@@ -1356,12 +1705,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>23,58%</t>
+          <t>22,92%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>19,9%</t>
+          <t>20,12%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1371,47 +1720,77 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>29,07%</t>
+          <t>19,33%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>26,34%</t>
+          <t>29,05%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>28,77%</t>
+          <t>37,8%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>26,4%</t>
+          <t>27,19%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>26,35%</t>
+          <t>27,85%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>25,15%</t>
+          <t>26,85%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>24,95%</t>
+          <t>28,81%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>24,82%</t>
+          <t>26,36%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
+          <t>29,28%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>25,35%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>24,52%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>25,07%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>24,71%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
           <t>27,5%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>32,85%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,21; 33,17</t>
+          <t>16,77; 31,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,19; 27,32</t>
+          <t>14,02; 26,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,64; 29,85</t>
+          <t>16,49; 29,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>22,09; 38,34</t>
+          <t>12,51; 27,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,23; 32,86</t>
+          <t>22,12; 36,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,75; 37,57</t>
+          <t>29,93; 46,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,25; 33,05</t>
+          <t>21,11; 34,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>18,83; 34,91</t>
+          <t>22,0; 34,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>20,67; 30,38</t>
+          <t>20,97; 33,98</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>20,43; 31,0</t>
+          <t>21,2; 36,79</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>20,23; 29,74</t>
+          <t>19,12; 34,88</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>22,0; 33,28</t>
+          <t>22,08; 36,2</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>21,03; 30,71</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>20,35; 29,55</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>20,97; 30,39</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>19,53; 30,85</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>21,86; 33,9</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>27,96; 38,94</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>13,33%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>15,66%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>21,57%</t>
+          <t>15,09%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>15,25%</t>
+          <t>21,58%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>22,12%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>15,39%</t>
+          <t>15,68%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>15,01%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>15,63%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>18,5%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>19,66%</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>14,33%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>14,76%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>15,53%</t>
-        </is>
-      </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>20,61%</t>
+          <t>20,04%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>14,53%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>14,84%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>15,64%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>16,84%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>20,62%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>21,08%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,36; 15,98</t>
+          <t>11,28; 15,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,49; 16,83</t>
+          <t>12,71; 17,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,42; 18,37</t>
+          <t>13,52; 18,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>18,96; 24,67</t>
+          <t>12,62; 18,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,31; 17,24</t>
+          <t>18,75; 24,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,28; 17,32</t>
+          <t>19,54; 25,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,5; 17,39</t>
+          <t>13,39; 17,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,28; 22,42</t>
+          <t>13,11; 16,85</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,95; 15,91</t>
+          <t>13,66; 17,83</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>13,38; 16,26</t>
+          <t>16,12; 21,19</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>14,14; 17,11</t>
+          <t>17,02; 22,39</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>18,81; 22,57</t>
+          <t>17,58; 22,66</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>13,19; 16,27</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>13,53; 16,39</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>14,3; 17,27</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>15,13; 18,67</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>18,77; 22,44</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>19,25; 22,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que convive con personas que tienen alguna limitación, discapacidad de tipo físico, sensorial o psíquico o mental (incluyéndose a sí mismo) (tasa de respuesta: 99,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>59158</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>75306</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>72680</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>70384</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>7018</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5738</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>56478</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>39116</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>44717</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>45543</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>6680</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>5654</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>115637</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>114422</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>117397</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>115927</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>13698</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>11393</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>34587; 90104</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>48907; 109435</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>43373; 113007</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>41032; 116127</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4165; 10984</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3327; 9385</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>33810; 82993</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>22443; 61298</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>26090; 68937</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>25391; 69812</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4462; 10352</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>3535; 8396</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>82778; 157655</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>79272; 154074</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>82602; 162001</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>77438; 165430</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>9891; 18431</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>7958; 15793</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>50775</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>65115</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>86599</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>64577</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4115</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>6001</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>33591</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>25748</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>40533</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>65709</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5438</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>6172</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>84366</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>90863</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>127132</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>130286</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>9553</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>12173</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>31366; 84437</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>38388; 114638</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>54191; 147759</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>24383; 149071</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2025; 6920</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3632; 9934</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>17877; 55614</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>14479; 43820</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>24696; 65568</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>41839; 94095</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3548; 7939</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4100; 9238</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>55691; 120625</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>61087; 148719</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>89068; 189622</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>85623; 216113</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>6657; 13519</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>8885; 16524</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>60625</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>79850</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>59290</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>69565</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7887</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>8530</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>76542</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>81185</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>78501</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>77711</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>7739</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>137167</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>161035</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>137792</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>147276</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>15626</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>15766</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>35571; 123809</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>55781; 129192</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>35750; 122233</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>45983; 98516</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5436; 11376</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5412; 12775</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>51419; 103089</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>58834; 108501</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>57103; 102080</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>53403; 109537</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5439; 10012</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>5134; 10099</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>102556; 190386</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>125672; 205903</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>107081; 200210</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>111418; 190922</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>12540; 19949</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>11826; 20893</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>83142</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>81422</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>90280</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>100757</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>16206</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>11671</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>112581</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>102804</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>112243</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>148767</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>9497</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>10702</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>195724</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>184226</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>202523</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>249524</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>25703</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>22373</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>61870; 113363</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>59282; 107629</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>67631; 119266</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>72255; 132139</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>12252; 20291</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>8603; 15285</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>87224; 145028</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>78618; 132346</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>88813; 140487</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>118658; 188848</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>7289; 12542</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>8463; 13748</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>159077; 235663</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>150849; 224181</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>167778; 241155</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>210025; 296164</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>21459; 31672</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>18179; 26945</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>80700</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>97520</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>110008</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>104094</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>16217</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>17205</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>91208</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>99774</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>102238</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>117732</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>13518</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>12109</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>171908</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>197294</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>212247</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>221825</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>29735</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>29314</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>57936; 108512</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>75675; 124557</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>86570; 141270</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>77652; 132507</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>13260; 19842</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>14143; 20906</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>66464; 119795</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>75094; 126038</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>77064; 128469</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>84927; 151331</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>10736; 16533</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>9521; 15062</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>137113; 208588</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>166358; 233159</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>177521; 251762</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>178242; 268959</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>25171; 34262</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>25081; 33734</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>124950</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>105637</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>120239</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>107485</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>13607</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>17330</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>195142</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>193529</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>186002</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>210303</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>16794</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>18644</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>320092</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>299165</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>306241</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>317788</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>30402</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>35973</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>91421; 171004</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>73598; 140188</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>87265; 156817</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>69558; 152158</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>10358; 17282</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>13720; 21337</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>151519; 245756</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>152896; 237745</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>145238; 235398</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>154776; 268571</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>12182; 22226</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>14059; 23049</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>265530; 387801</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>248302; 360479</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>256202; 371306</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>251187; 396660</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>24171; 37485</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>30621; 42651</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>211.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>203.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>360.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>443.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>460.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>376.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>408.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>432.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>459349</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>504849</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>539097</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>516862</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>65050</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>66475</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>565544</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>542155</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>564235</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>665765</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>59667</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>60517</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>1024893</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>1047004</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>1103332</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>1182627</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>124717</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>126992</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>388732; 539718</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>437569; 585828</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>465618; 629171</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>432361; 618334</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>56523; 74696</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>58721; 76698</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>483058; 634961</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>473703; 608629</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>493384; 643744</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>580152; 762640</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>51637; 67934</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>53089; 68427</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>930118; 1147269</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>954609; 1156599</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>1008440; 1218532</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>1062451; 1311161</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>113576; 135779</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>115940; 138147</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
